--- a/data/trans_orig/CAMINAR_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se camina</t>
+          <t>Nº medio de minutos/día en los que se camina (tasa de respuesta: 97,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CAMINAR_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,93</t>
+          <t>94,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,61</t>
+          <t>94,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>95,37</t>
+          <t>94,7</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,26; 115,57</t>
+          <t>82,34; 112,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,98; 88,44</t>
+          <t>55,65; 88,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,7; 59,16</t>
+          <t>39,53; 59,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,38; 111,76</t>
+          <t>81,57; 114,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,54; 57,7</t>
+          <t>39,4; 58,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,65; 63,03</t>
+          <t>42,87; 62,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,19; 108,13</t>
+          <t>84,94; 107,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51,23; 72,06</t>
+          <t>50,12; 72,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,03; 56,52</t>
+          <t>43,05; 56,29</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,96</t>
+          <t>85,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,5</t>
+          <t>97,2</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>97,72</t>
+          <t>91,31</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,1; 127,85</t>
+          <t>72,72; 105,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,94; 71,49</t>
+          <t>51,25; 73,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,54; 53,45</t>
+          <t>37,97; 53,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,8; 117,24</t>
+          <t>83,86; 113,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,87; 65,87</t>
+          <t>49,82; 65,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,72; 48,57</t>
+          <t>37,56; 48,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,18; 115,21</t>
+          <t>82,2; 103,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,38; 66,72</t>
+          <t>53,01; 65,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,74; 48,7</t>
+          <t>39,34; 48,64</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,16</t>
+          <t>102,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>106,77</t>
+          <t>102,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>103,61</t>
+          <t>102,86</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,35; 113,25</t>
+          <t>88,99; 119,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,56; 65,27</t>
+          <t>50,69; 65,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,82; 69,57</t>
+          <t>47,72; 69,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,44; 120,15</t>
+          <t>91,73; 116,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,72; 54,81</t>
+          <t>45,0; 54,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,38; 57,96</t>
+          <t>42,28; 57,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,14; 113,38</t>
+          <t>94,65; 113,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,19; 57,75</t>
+          <t>48,91; 57,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,46; 59,81</t>
+          <t>46,71; 59,48</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>109,47</t>
+          <t>106,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,16</t>
+          <t>89,04</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>98,7</t>
+          <t>97,97</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>100,31; 123,9</t>
+          <t>95,82; 122,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,67; 67,72</t>
+          <t>36,58; 67,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,84; 115,28</t>
+          <t>45,87; 111,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,06; 96,67</t>
+          <t>82,0; 97,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,38; 58,99</t>
+          <t>51,11; 59,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,81; 50,09</t>
+          <t>39,9; 49,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,53; 105,66</t>
+          <t>91,36; 106,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,81; 60,69</t>
+          <t>39,06; 60,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>45,02; 81,89</t>
+          <t>44,89; 81,04</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>87,32</t>
+          <t>91,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>82,21</t>
+          <t>87,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>84,53</t>
+          <t>89,6</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,06; 94,54</t>
+          <t>83,99; 105,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,54; 66,36</t>
+          <t>53,37; 66,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,52; 57,72</t>
+          <t>41,28; 58,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,16; 88,1</t>
+          <t>80,07; 98,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,12; 59,46</t>
+          <t>48,95; 60,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,06; 60,54</t>
+          <t>44,5; 62,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,86; 89,03</t>
+          <t>83,64; 97,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,87; 61,05</t>
+          <t>52,94; 60,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,43; 55,87</t>
+          <t>44,42; 56,16</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>97,25</t>
+          <t>100,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,4</t>
+          <t>72,4</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>83,51</t>
+          <t>85,34</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,83; 105,71</t>
+          <t>93,2; 113,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,59; 74,34</t>
+          <t>60,1; 74,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>58,53; 73,98</t>
+          <t>58,63; 74,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>66,21; 77,84</t>
+          <t>67,35; 78,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,17; 160,08</t>
+          <t>49,58; 163,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>50,76; 66,02</t>
+          <t>51,03; 66,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,27; 88,86</t>
+          <t>80,7; 92,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>56,78; 146,78</t>
+          <t>56,58; 151,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>56,68; 67,92</t>
+          <t>56,67; 67,62</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>68,94</t>
+          <t>71,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>54,07</t>
+          <t>55,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>59,81</t>
+          <t>61,83</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>62,05; 77,79</t>
+          <t>63,51; 79,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,92; 57,17</t>
+          <t>40,31; 57,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40,86; 55,73</t>
+          <t>40,55; 55,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,04; 59,41</t>
+          <t>50,24; 63,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,35; 35,14</t>
+          <t>26,45; 35,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,39; 43,9</t>
+          <t>33,62; 43,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>55,4; 64,01</t>
+          <t>57,15; 67,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>33,59; 42,2</t>
+          <t>33,53; 42,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>37,75; 46,65</t>
+          <t>37,59; 46,3</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>94,27</t>
+          <t>95,21</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>80,83</t>
+          <t>84,84</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>87,03</t>
+          <t>89,78</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,43; 98,49</t>
+          <t>90,6; 100,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,67; 62,47</t>
+          <t>47,63; 62,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,34; 65,81</t>
+          <t>49,45; 64,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>78,01; 84,56</t>
+          <t>81,46; 89,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,39; 98,43</t>
+          <t>49,61; 99,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>45,04; 50,26</t>
+          <t>44,9; 50,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>84,51; 89,65</t>
+          <t>86,9; 92,88</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>52,64; 79,88</t>
+          <t>52,69; 83,91</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>47,99; 55,14</t>
+          <t>47,94; 54,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CAMINAR_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>72,51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47,57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>65,63</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>94,68</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>69,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>65,63</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>47,57</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>50,2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>50,58</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>83,76</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>94,72</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>47,3</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>83,76</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>50,58</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>61,96</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49,07</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>74,74</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>94,7</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>59,87</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>74,74</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>49,07</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>58,99; 89,35</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39,53; 59,66</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57,33; 78,68</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>82,34; 112,99</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>55,65; 88,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>57,33; 78,68</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>39,53; 59,66</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>41,28; 60,61</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42,87; 62,71</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>71,3; 101,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>81,57; 114,83</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>39,4; 58,22</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>71,3; 101,74</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>42,87; 62,71</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>53,35; 73,51</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43,05; 56,29</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>66,81; 84,79</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>84,94; 107,22</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>50,12; 72,51</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>66,81; 84,79</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>43,05; 56,29</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>61,62</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>44,88</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>91,83</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>85,42</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>60,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>91,83</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>44,88</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>54,48</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>42,55</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>87,27</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>97,2</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>58,11</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>87,27</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>42,55</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>57,89</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43,69</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>89,41</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>91,31</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>58,97</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>89,41</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>43,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>53,17; 75,44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37,97; 53,84</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78,02; 106,83</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>72,72; 105,0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>51,25; 73,58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>78,02; 106,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>37,97; 53,84</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>47,3; 63,14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37,56; 48,65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>77,49; 99,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>83,86; 113,01</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>49,82; 65,55</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>77,49; 99,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>37,56; 48,65</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>51,76; 64,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39,34; 48,64</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81,23; 99,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>82,2; 103,56</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>53,01; 65,67</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>81,23; 99,65</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>39,34; 48,64</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>56,39</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56,21</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>88,48</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>102,79</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>57,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>88,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>56,21</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>48,93</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>48,71</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>79,87</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>102,95</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>49,17</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>79,87</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>48,71</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>52,66</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52,53</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84,15</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>102,86</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>53,03</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>84,15</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>52,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>50,45; 63,84</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47,72; 69,26</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>79,34; 99,72</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>88,99; 119,12</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>50,69; 65,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>79,34; 99,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>47,72; 69,26</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>44,71; 53,82</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42,28; 57,31</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>71,19; 91,43</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>91,73; 116,03</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>45,0; 54,77</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>71,19; 91,43</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>42,28; 57,31</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>48,97; 57,23</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>46,71; 59,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>77,22; 91,14</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>94,65; 113,74</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>48,91; 57,85</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>77,22; 91,14</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>46,71; 59,48</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>65,05</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62,67</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>91,38</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>106,87</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>50,62</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>91,38</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>62,67</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>55,19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>44,52</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>76,26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>89,04</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>54,69</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>76,26</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>44,52</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>60,05</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53,31</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>83,95</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>97,97</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>52,18</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>83,95</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>53,31</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>57,94; 73,04</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45,87; 111,89</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>81,64; 104,8</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>95,82; 122,3</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>36,58; 67,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>81,64; 104,8</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>45,87; 111,89</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>51,51; 59,82</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39,9; 49,87</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68,59; 86,25</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>82,0; 97,36</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>51,11; 59,63</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>68,59; 86,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>39,9; 49,87</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>56,27; 64,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44,89; 81,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>77,0; 91,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>91,36; 106,56</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>39,06; 60,17</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>77,0; 91,15</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>44,89; 81,04</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>59,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47,87</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>87,48</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>91,98</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>59,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>87,48</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>47,87</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>54,05</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50,48</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>75,21</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>87,41</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>54,0</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>75,21</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>50,48</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>56,59</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49,31</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>81,13</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>89,6</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>56,72</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>81,13</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>49,31</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>53,36; 66,1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>41,28; 58,41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>78,16; 99,55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>83,99; 105,53</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>53,37; 66,6</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>78,16; 99,55</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>41,28; 58,41</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>49,37; 60,06</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>44,5; 62,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>67,8; 82,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>80,07; 98,07</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>48,95; 60,12</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>67,8; 82,35</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>44,5; 62,34</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>52,9; 60,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44,42; 56,16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>75,08; 87,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>83,64; 97,55</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>52,94; 60,88</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>75,08; 87,94</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>44,42; 56,16</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>65,9</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65,59</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>78,72</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>100,38</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>66,22</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>78,72</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>65,59</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>50,44</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58,84</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66,81</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>72,4</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>112,81</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>66,81</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>58,84</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>57,64</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61,86</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72,66</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>85,34</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>98,14</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>72,66</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>61,86</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>59,86; 73,48</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58,63; 74,75</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72,4; 86,92</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>93,2; 113,49</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>60,1; 74,02</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>72,4; 86,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>58,63; 74,75</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>45,95; 55,66</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>51,03; 66,76</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61,43; 74,84</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>67,35; 78,57</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>49,58; 163,37</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>61,43; 74,84</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>51,03; 66,76</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>53,32; 61,67</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>56,67; 67,62</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>68,41; 77,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>80,7; 92,09</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>56,58; 151,57</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>68,41; 77,99</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>56,67; 67,62</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>47,53</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>47,72</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>53,45</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>71,57</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>47,87</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>53,45</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>47,72</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>30,25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38,27</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>38,07</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>55,76</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>30,36</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>38,07</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>38,27</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>36,99</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42,18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>44,35</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>61,83</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>37,22</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>44,35</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>42,18</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>40,04; 57,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40,55; 55,25</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>48,7; 59,37</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>63,51; 79,89</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>40,31; 57,0</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>48,7; 59,37</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>40,55; 55,25</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>26,27; 35,24</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33,62; 43,46</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34,46; 43,02</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>50,24; 63,15</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>26,45; 35,33</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>34,46; 43,02</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>33,62; 43,46</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>33,42; 41,86</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>37,59; 46,3</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>41,38; 48,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>57,15; 67,21</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>33,53; 42,06</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>41,38; 48,23</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>37,59; 46,3</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>61,6</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>53,51</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>81,93</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>95,21</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>57,46</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>81,93</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>53,51</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>49,85</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>47,4</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>72,59</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>84,84</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>63,28</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>72,59</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>47,4</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>55,53</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>50,3</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>77,1</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>89,78</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>60,45</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>77,1</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>50,3</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>58,48; 64,85</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>49,45; 64,2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>77,83; 86,25</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>90,6; 100,41</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>47,63; 62,41</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>77,83; 86,25</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>49,45; 64,2</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>47,85; 51,99</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>44,9; 50,37</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>69,24; 76,39</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>81,46; 89,05</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>49,61; 99,29</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>69,24; 76,39</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>44,9; 50,37</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>53,62; 57,68</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>47,94; 54,99</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>74,33; 79,86</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>86,9; 92,88</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>52,69; 83,91</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>74,33; 79,86</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>47,94; 54,99</t>
         </is>
       </c>
     </row>
